--- a/Primeira fase.xlsx
+++ b/Primeira fase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\Faculdade\2021-2022\Cadeiras\Semestre II\Análise e Desenho de Software\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc55852_alunos_fc_ul_pt/Documents/2ºAno/2_Sem/Analise&amp;DesenhoDeSoftware/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E308B3-F30F-449D-8A47-E3FE7C9E5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{B3E308B3-F30F-449D-8A47-E3FE7C9E5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591B68ED-103F-4BDE-B207-89B456E03106}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="-11685" windowWidth="17280" windowHeight="8880" xr2:uid="{18C49EE6-8F67-4CA5-9F9A-C2C5B521A273}"/>
+    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{18C49EE6-8F67-4CA5-9F9A-C2C5B521A273}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Disciplina</t>
   </si>
@@ -107,13 +107,31 @@
   </si>
   <si>
     <t>Modelo de Negócio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design diagrama de classes design model </t>
+  </si>
+  <si>
+    <t>lote de leiloes criados no cataloho</t>
+  </si>
+  <si>
+    <t>gerir</t>
+  </si>
+  <si>
+    <t>criar</t>
+  </si>
+  <si>
+    <t>reputção</t>
+  </si>
+  <si>
+    <t>sigletown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +161,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,9 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,29 +278,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD3BBBA-A405-4AE7-8757-CB86DBD42753}">
-  <dimension ref="A5:F19"/>
+  <dimension ref="A4:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,11 +644,35 @@
     <col min="3" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="17"/>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -610,26 +687,26 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -638,128 +715,128 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Primeira fase.xlsx
+++ b/Primeira fase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc55852_alunos_fc_ul_pt/Documents/2ºAno/2_Sem/Analise&amp;DesenhoDeSoftware/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Ambiente de Trabalho\Faculdade\2021-2022\Cadeiras\Semestre II\Análise e Desenho de Software\Projeto\2ano-Analise-Desenho-Software-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{B3E308B3-F30F-449D-8A47-E3FE7C9E5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{591B68ED-103F-4BDE-B207-89B456E03106}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F26D65A-F4A2-4F2B-B320-F19F22C284BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{18C49EE6-8F67-4CA5-9F9A-C2C5B521A273}"/>
+    <workbookView xWindow="7710" yWindow="-12090" windowWidth="17280" windowHeight="8880" xr2:uid="{18C49EE6-8F67-4CA5-9F9A-C2C5B521A273}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Disciplina</t>
   </si>
@@ -94,12 +94,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Construção</t>
-  </si>
-  <si>
-    <t>Transição</t>
-  </si>
-  <si>
     <t>Caso de Desenvolvimento</t>
   </si>
   <si>
@@ -109,39 +103,20 @@
     <t>Modelo de Negócio</t>
   </si>
   <si>
-    <t xml:space="preserve">design diagrama de classes design model </t>
-  </si>
-  <si>
-    <t>lote de leiloes criados no cataloho</t>
-  </si>
-  <si>
-    <t>gerir</t>
-  </si>
-  <si>
-    <t>criar</t>
-  </si>
-  <si>
-    <t>reputção</t>
-  </si>
-  <si>
-    <t>sigletown</t>
+    <t>Desenho</t>
+  </si>
+  <si>
+    <t>Diagrama de classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,14 +132,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,13 +223,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -279,44 +246,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,50 +573,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD3BBBA-A405-4AE7-8757-CB86DBD42753}">
-  <dimension ref="A4:F19"/>
+  <dimension ref="A5:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,28 +605,20 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -721,10 +631,8 @@
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -735,10 +643,8 @@
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>7</v>
@@ -749,10 +655,8 @@
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>8</v>
@@ -763,80 +667,71 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="19" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
